--- a/заказы/статистика филиалы/2023/12,23/20,12,23 КИ/дв 20,12,23 лгрсч от филиала и Лыгин.xlsx
+++ b/заказы/статистика филиалы/2023/12,23/20,12,23 КИ/дв 20,12,23 лгрсч от филиала и Лыгин.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\20,12,23 филиалы КИ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2023\12,23\20,12,23 КИ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A546EE60-1032-4438-8FFE-5A429A77B37D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE0AFC1-07EA-4F36-B195-834E4FCAE810}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -473,6 +473,8 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
@@ -803,14 +805,14 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8672,8 +8674,8 @@
   <dimension ref="A1:AA110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S31" sqref="S31"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Y9" sqref="Y9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -8746,10 +8748,10 @@
       <c r="O3" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="P3" s="36" t="s">
+      <c r="P3" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="Q3" s="36" t="s">
+      <c r="Q3" s="35" t="s">
         <v>119</v>
       </c>
       <c r="R3" s="15" t="s">
@@ -8805,10 +8807,10 @@
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
-      <c r="L4" s="35" t="s">
+      <c r="L4" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="M4" s="35"/>
+      <c r="M4" s="38"/>
       <c r="N4" s="3"/>
       <c r="O4" s="18"/>
       <c r="P4" s="39" t="s">
@@ -8874,11 +8876,11 @@
         <f t="shared" si="1"/>
         <v>29272.702799999999</v>
       </c>
-      <c r="P5" s="37">
+      <c r="P5" s="36">
         <f t="shared" ref="P5:Q5" si="2">SUM(P6:P204)</f>
         <v>18894.764199999998</v>
       </c>
-      <c r="Q5" s="37">
+      <c r="Q5" s="36">
         <f t="shared" si="2"/>
         <v>2000</v>
       </c>
@@ -8947,8 +8949,8 @@
         <v>0.27200000000000002</v>
       </c>
       <c r="O6" s="30"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
       <c r="R6" s="32"/>
       <c r="T6" s="33">
         <f>(G6+L6+M6+P6+Q6)/N6</f>
@@ -9025,10 +9027,10 @@
         <f>12*N7-M7-L7-G7</f>
         <v>1287.8016000000002</v>
       </c>
-      <c r="P7" s="38">
+      <c r="P7" s="37">
         <v>1150</v>
       </c>
-      <c r="Q7" s="38"/>
+      <c r="Q7" s="37"/>
       <c r="R7" s="32"/>
       <c r="T7" s="33">
         <f t="shared" ref="T7:T70" si="6">(G7+L7+M7+P7+Q7)/N7</f>
@@ -9051,7 +9053,7 @@
         <v>138.0806</v>
       </c>
       <c r="Z7" s="7">
-        <f t="shared" ref="Z7:AA70" si="8">P7*H7</f>
+        <f t="shared" ref="Z7:Z70" si="8">P7*H7</f>
         <v>1150</v>
       </c>
       <c r="AA7" s="7">
@@ -9105,10 +9107,10 @@
         <f>11*N8-M8-L8-G8</f>
         <v>551.88520000000017</v>
       </c>
-      <c r="P8" s="38">
+      <c r="P8" s="37">
         <v>200</v>
       </c>
-      <c r="Q8" s="38"/>
+      <c r="Q8" s="37"/>
       <c r="R8" s="32">
         <v>200</v>
       </c>
@@ -9190,10 +9192,10 @@
         <f t="shared" ref="O9" si="10">12*N9-M9-L9-G9</f>
         <v>579.96179999999981</v>
       </c>
-      <c r="P9" s="38">
+      <c r="P9" s="37">
         <v>200</v>
       </c>
-      <c r="Q9" s="38"/>
+      <c r="Q9" s="37"/>
       <c r="R9" s="32">
         <v>200</v>
       </c>
@@ -9275,10 +9277,10 @@
         <f>11*N10-M10-L10-G10</f>
         <v>335.20859999999988</v>
       </c>
-      <c r="P10" s="38">
+      <c r="P10" s="37">
         <v>150</v>
       </c>
-      <c r="Q10" s="38"/>
+      <c r="Q10" s="37"/>
       <c r="R10" s="32">
         <v>150</v>
       </c>
@@ -9353,8 +9355,8 @@
         <v>1.8</v>
       </c>
       <c r="O11" s="30"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="38"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="37"/>
       <c r="R11" s="32"/>
       <c r="T11" s="33">
         <f t="shared" si="6"/>
@@ -9422,8 +9424,8 @@
         <v>6.8</v>
       </c>
       <c r="O12" s="30"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="38"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="37"/>
       <c r="R12" s="32"/>
       <c r="T12" s="33">
         <f t="shared" si="6"/>
@@ -9500,8 +9502,8 @@
         <f t="shared" ref="O13:O14" si="11">12*N13-M13-L13-G13</f>
         <v>33.800000000000068</v>
       </c>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="38"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="37"/>
       <c r="R13" s="32"/>
       <c r="T13" s="33">
         <f t="shared" si="6"/>
@@ -9578,10 +9580,10 @@
         <f t="shared" si="11"/>
         <v>189.79999999999995</v>
       </c>
-      <c r="P14" s="38">
+      <c r="P14" s="37">
         <v>100</v>
       </c>
-      <c r="Q14" s="38"/>
+      <c r="Q14" s="37"/>
       <c r="R14" s="32">
         <v>100</v>
       </c>
@@ -9654,8 +9656,8 @@
         <v>7.2</v>
       </c>
       <c r="O15" s="30"/>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="38"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="37"/>
       <c r="R15" s="32"/>
       <c r="T15" s="33">
         <f t="shared" si="6"/>
@@ -9729,8 +9731,8 @@
         <v>20.399999999999999</v>
       </c>
       <c r="O16" s="30"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="38"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="37"/>
       <c r="R16" s="32"/>
       <c r="T16" s="33">
         <f t="shared" si="6"/>
@@ -9800,8 +9802,8 @@
         <v>0.6</v>
       </c>
       <c r="O17" s="30"/>
-      <c r="P17" s="38"/>
-      <c r="Q17" s="38"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="37"/>
       <c r="R17" s="32"/>
       <c r="T17" s="33">
         <f t="shared" si="6"/>
@@ -9871,8 +9873,8 @@
         <v>6</v>
       </c>
       <c r="O18" s="30"/>
-      <c r="P18" s="38"/>
-      <c r="Q18" s="38"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
       <c r="R18" s="32"/>
       <c r="T18" s="33">
         <f t="shared" si="6"/>
@@ -9943,10 +9945,10 @@
         <f>7*N19-M19-L19-G19</f>
         <v>42</v>
       </c>
-      <c r="P19" s="38">
+      <c r="P19" s="37">
         <v>35</v>
       </c>
-      <c r="Q19" s="38"/>
+      <c r="Q19" s="37"/>
       <c r="R19" s="32"/>
       <c r="T19" s="33">
         <f t="shared" si="6"/>
@@ -10017,10 +10019,10 @@
         <f>7*N20-M20-L20-G20</f>
         <v>42</v>
       </c>
-      <c r="P20" s="38">
+      <c r="P20" s="37">
         <v>35</v>
       </c>
-      <c r="Q20" s="38"/>
+      <c r="Q20" s="37"/>
       <c r="R20" s="32"/>
       <c r="T20" s="33">
         <f t="shared" si="6"/>
@@ -10094,8 +10096,8 @@
         <v>13.4</v>
       </c>
       <c r="O21" s="30"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="38"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="37"/>
       <c r="R21" s="32"/>
       <c r="T21" s="33">
         <f t="shared" si="6"/>
@@ -10176,10 +10178,10 @@
         <f t="shared" ref="O22:O24" si="12">12*N22-M22-L22-G22</f>
         <v>102.6</v>
       </c>
-      <c r="P22" s="38">
+      <c r="P22" s="37">
         <v>90</v>
       </c>
-      <c r="Q22" s="38"/>
+      <c r="Q22" s="37"/>
       <c r="R22" s="32"/>
       <c r="T22" s="33">
         <f t="shared" si="6"/>
@@ -10256,10 +10258,10 @@
         <f>10*N23-M23-L23-G23</f>
         <v>178.35700000000003</v>
       </c>
-      <c r="P23" s="38">
+      <c r="P23" s="37">
         <v>140</v>
       </c>
-      <c r="Q23" s="38"/>
+      <c r="Q23" s="37"/>
       <c r="R23" s="32"/>
       <c r="T23" s="33">
         <f t="shared" si="6"/>
@@ -10336,10 +10338,10 @@
         <f t="shared" si="12"/>
         <v>253.59999999999991</v>
       </c>
-      <c r="P24" s="38">
+      <c r="P24" s="37">
         <v>210</v>
       </c>
-      <c r="Q24" s="38"/>
+      <c r="Q24" s="37"/>
       <c r="R24" s="32"/>
       <c r="T24" s="33">
         <f t="shared" si="6"/>
@@ -10410,10 +10412,10 @@
         <f>6*N25-M25-L25-G25</f>
         <v>36</v>
       </c>
-      <c r="P25" s="38">
+      <c r="P25" s="37">
         <v>30</v>
       </c>
-      <c r="Q25" s="38"/>
+      <c r="Q25" s="37"/>
       <c r="R25" s="32"/>
       <c r="T25" s="33">
         <f t="shared" si="6"/>
@@ -10483,8 +10485,8 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="O26" s="30"/>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="38"/>
+      <c r="P26" s="37"/>
+      <c r="Q26" s="37"/>
       <c r="R26" s="32"/>
       <c r="T26" s="33">
         <f t="shared" si="6"/>
@@ -10561,8 +10563,8 @@
         <v>18.399999999999999</v>
       </c>
       <c r="O27" s="30"/>
-      <c r="P27" s="38"/>
-      <c r="Q27" s="38"/>
+      <c r="P27" s="37"/>
+      <c r="Q27" s="37"/>
       <c r="R27" s="32"/>
       <c r="T27" s="33">
         <f t="shared" si="6"/>
@@ -10637,10 +10639,10 @@
         <f>7*N28-M28-L28-G28</f>
         <v>44.800000000000004</v>
       </c>
-      <c r="P28" s="38">
+      <c r="P28" s="37">
         <v>35</v>
       </c>
-      <c r="Q28" s="38"/>
+      <c r="Q28" s="37"/>
       <c r="R28" s="32"/>
       <c r="T28" s="33">
         <f t="shared" si="6"/>
@@ -10710,8 +10712,8 @@
         <v>7.2</v>
       </c>
       <c r="O29" s="30"/>
-      <c r="P29" s="38"/>
-      <c r="Q29" s="38"/>
+      <c r="P29" s="37"/>
+      <c r="Q29" s="37"/>
       <c r="R29" s="32"/>
       <c r="T29" s="33">
         <f t="shared" si="6"/>
@@ -10782,10 +10784,10 @@
         <f>7*N30-M30-L30-G30</f>
         <v>44.800000000000004</v>
       </c>
-      <c r="P30" s="38">
+      <c r="P30" s="37">
         <v>35</v>
       </c>
-      <c r="Q30" s="38"/>
+      <c r="Q30" s="37"/>
       <c r="R30" s="32"/>
       <c r="T30" s="33">
         <f t="shared" si="6"/>
@@ -10862,10 +10864,10 @@
         <f t="shared" ref="O31:O55" si="13">12*N31-M31-L31-G31</f>
         <v>104.39999999999998</v>
       </c>
-      <c r="P31" s="38">
+      <c r="P31" s="37">
         <v>75</v>
       </c>
-      <c r="Q31" s="38"/>
+      <c r="Q31" s="37"/>
       <c r="R31" s="32"/>
       <c r="T31" s="33">
         <f t="shared" si="6"/>
@@ -10938,8 +10940,8 @@
         <v>6.4</v>
       </c>
       <c r="O32" s="30"/>
-      <c r="P32" s="38"/>
-      <c r="Q32" s="38"/>
+      <c r="P32" s="37"/>
+      <c r="Q32" s="37"/>
       <c r="R32" s="32"/>
       <c r="T32" s="33">
         <f t="shared" si="6"/>
@@ -11019,10 +11021,10 @@
         <f t="shared" si="13"/>
         <v>389.93700000000007</v>
       </c>
-      <c r="P33" s="38">
+      <c r="P33" s="37">
         <v>310</v>
       </c>
-      <c r="Q33" s="38"/>
+      <c r="Q33" s="37"/>
       <c r="R33" s="32"/>
       <c r="T33" s="33">
         <f t="shared" si="6"/>
@@ -11103,10 +11105,10 @@
         <f>11*N34-M34-L34-G34</f>
         <v>2699.7641999999996</v>
       </c>
-      <c r="P34" s="38">
+      <c r="P34" s="37">
         <v>2699.7641999999996</v>
       </c>
-      <c r="Q34" s="38"/>
+      <c r="Q34" s="37"/>
       <c r="R34" s="32"/>
       <c r="T34" s="33">
         <f t="shared" si="6"/>
@@ -11179,10 +11181,10 @@
         <f>7*N35-M35-L35-G35</f>
         <v>164.0256</v>
       </c>
-      <c r="P35" s="38">
+      <c r="P35" s="37">
         <v>140</v>
       </c>
-      <c r="Q35" s="38"/>
+      <c r="Q35" s="37"/>
       <c r="R35" s="32"/>
       <c r="T35" s="33">
         <f t="shared" si="6"/>
@@ -11262,10 +11264,10 @@
         <f t="shared" si="13"/>
         <v>1261.4503999999997</v>
       </c>
-      <c r="P36" s="38">
+      <c r="P36" s="37">
         <v>1070</v>
       </c>
-      <c r="Q36" s="38"/>
+      <c r="Q36" s="37"/>
       <c r="R36" s="32"/>
       <c r="T36" s="33">
         <f t="shared" si="6"/>
@@ -11346,10 +11348,10 @@
         <f t="shared" si="13"/>
         <v>2355.0410000000002</v>
       </c>
-      <c r="P37" s="38">
+      <c r="P37" s="37">
         <v>2200</v>
       </c>
-      <c r="Q37" s="38"/>
+      <c r="Q37" s="37"/>
       <c r="R37" s="32"/>
       <c r="S37" s="34" t="s">
         <v>139</v>
@@ -11428,10 +11430,10 @@
         <f>10*N38-M38-L38-G38</f>
         <v>459.28100000000006</v>
       </c>
-      <c r="P38" s="38">
+      <c r="P38" s="37">
         <v>390</v>
       </c>
-      <c r="Q38" s="38"/>
+      <c r="Q38" s="37"/>
       <c r="R38" s="32"/>
       <c r="T38" s="33">
         <f t="shared" si="6"/>
@@ -11515,10 +11517,10 @@
         <f t="shared" si="13"/>
         <v>1000.6874000000001</v>
       </c>
-      <c r="P39" s="38">
+      <c r="P39" s="37">
         <v>850</v>
       </c>
-      <c r="Q39" s="38"/>
+      <c r="Q39" s="37"/>
       <c r="R39" s="32"/>
       <c r="T39" s="33">
         <f t="shared" si="6"/>
@@ -11599,10 +11601,10 @@
         <f>10*N40-M40-L40-G40</f>
         <v>2896.415</v>
       </c>
-      <c r="P40" s="38">
+      <c r="P40" s="37">
         <v>2100</v>
       </c>
-      <c r="Q40" s="38">
+      <c r="Q40" s="37">
         <v>1000</v>
       </c>
       <c r="R40" s="32"/>
@@ -11680,10 +11682,10 @@
         <f>9*N41-M41-L41-G41</f>
         <v>2438.8446000000004</v>
       </c>
-      <c r="P41" s="38">
+      <c r="P41" s="37">
         <v>1450</v>
       </c>
-      <c r="Q41" s="38">
+      <c r="Q41" s="37">
         <v>1000</v>
       </c>
       <c r="R41" s="32"/>
@@ -11761,10 +11763,10 @@
         <f>11*N42-M42-L42-G42</f>
         <v>654.05300000000011</v>
       </c>
-      <c r="P42" s="38">
+      <c r="P42" s="37">
         <v>300</v>
       </c>
-      <c r="Q42" s="38"/>
+      <c r="Q42" s="37"/>
       <c r="R42" s="32">
         <v>300</v>
       </c>
@@ -11853,10 +11855,10 @@
         <f t="shared" si="13"/>
         <v>512.70739999999989</v>
       </c>
-      <c r="P43" s="38">
+      <c r="P43" s="37">
         <v>450</v>
       </c>
-      <c r="Q43" s="38"/>
+      <c r="Q43" s="37"/>
       <c r="R43" s="32"/>
       <c r="T43" s="33">
         <f t="shared" si="6"/>
@@ -11940,10 +11942,10 @@
         <f t="shared" si="13"/>
         <v>494.7725999999999</v>
       </c>
-      <c r="P44" s="38">
+      <c r="P44" s="37">
         <v>400</v>
       </c>
-      <c r="Q44" s="38"/>
+      <c r="Q44" s="37"/>
       <c r="R44" s="32"/>
       <c r="T44" s="33">
         <f t="shared" si="6"/>
@@ -12016,10 +12018,10 @@
         <f>8*N45-M45-L45-G45</f>
         <v>137.42100000000002</v>
       </c>
-      <c r="P45" s="38">
+      <c r="P45" s="37">
         <v>95</v>
       </c>
-      <c r="Q45" s="38"/>
+      <c r="Q45" s="37"/>
       <c r="R45" s="32"/>
       <c r="T45" s="33">
         <f t="shared" si="6"/>
@@ -12092,10 +12094,10 @@
         <f>11*N46-M46-L46-G46</f>
         <v>131.75840000000002</v>
       </c>
-      <c r="P46" s="38">
+      <c r="P46" s="37">
         <v>110</v>
       </c>
-      <c r="Q46" s="38"/>
+      <c r="Q46" s="37"/>
       <c r="R46" s="32"/>
       <c r="T46" s="33">
         <f t="shared" si="6"/>
@@ -12168,10 +12170,10 @@
         <f>10*N47-M47-L47-G47</f>
         <v>271.92899999999997</v>
       </c>
-      <c r="P47" s="38">
+      <c r="P47" s="37">
         <v>100</v>
       </c>
-      <c r="Q47" s="38"/>
+      <c r="Q47" s="37"/>
       <c r="R47" s="32">
         <v>100</v>
       </c>
@@ -12249,10 +12251,10 @@
         <f>10*N48-M48-L48-G48</f>
         <v>225.816</v>
       </c>
-      <c r="P48" s="38">
+      <c r="P48" s="37">
         <v>100</v>
       </c>
-      <c r="Q48" s="38"/>
+      <c r="Q48" s="37"/>
       <c r="R48" s="32">
         <v>100</v>
       </c>
@@ -12330,10 +12332,10 @@
         <f>9*N49-M49-L49-G49</f>
         <v>421.76479999999992</v>
       </c>
-      <c r="P49" s="38">
+      <c r="P49" s="37">
         <v>100</v>
       </c>
-      <c r="Q49" s="38"/>
+      <c r="Q49" s="37"/>
       <c r="R49" s="32">
         <v>100</v>
       </c>
@@ -12415,8 +12417,8 @@
         <f t="shared" si="13"/>
         <v>19.516200000000023</v>
       </c>
-      <c r="P50" s="38"/>
-      <c r="Q50" s="38"/>
+      <c r="P50" s="37"/>
+      <c r="Q50" s="37"/>
       <c r="R50" s="32"/>
       <c r="T50" s="33">
         <f t="shared" si="6"/>
@@ -12497,10 +12499,10 @@
         <f>11*N51-M51-L51-G51</f>
         <v>638.74620000000004</v>
       </c>
-      <c r="P51" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="38"/>
+      <c r="P51" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="37"/>
       <c r="R51" s="32">
         <v>0</v>
       </c>
@@ -12578,8 +12580,8 @@
         <f>10*N52-M52-L52-G52</f>
         <v>53.370000000000005</v>
       </c>
-      <c r="P52" s="38"/>
-      <c r="Q52" s="38"/>
+      <c r="P52" s="37"/>
+      <c r="Q52" s="37"/>
       <c r="R52" s="32"/>
       <c r="T52" s="33">
         <f t="shared" si="6"/>
@@ -12649,8 +12651,8 @@
         <v>2.93</v>
       </c>
       <c r="O53" s="30"/>
-      <c r="P53" s="38"/>
-      <c r="Q53" s="38"/>
+      <c r="P53" s="37"/>
+      <c r="Q53" s="37"/>
       <c r="R53" s="32"/>
       <c r="T53" s="33">
         <f t="shared" si="6"/>
@@ -12724,8 +12726,8 @@
         <v>10.055400000000001</v>
       </c>
       <c r="O54" s="30"/>
-      <c r="P54" s="38"/>
-      <c r="Q54" s="38"/>
+      <c r="P54" s="37"/>
+      <c r="Q54" s="37"/>
       <c r="R54" s="32"/>
       <c r="T54" s="33">
         <f t="shared" si="6"/>
@@ -12806,8 +12808,8 @@
         <f t="shared" si="13"/>
         <v>12.444999999999983</v>
       </c>
-      <c r="P55" s="38"/>
-      <c r="Q55" s="38"/>
+      <c r="P55" s="37"/>
+      <c r="Q55" s="37"/>
       <c r="R55" s="32"/>
       <c r="T55" s="33">
         <f t="shared" si="6"/>
@@ -12884,10 +12886,10 @@
         <f>10*N56-M56-L56-G56</f>
         <v>157.60280000000003</v>
       </c>
-      <c r="P56" s="38">
+      <c r="P56" s="37">
         <v>110</v>
       </c>
-      <c r="Q56" s="38"/>
+      <c r="Q56" s="37"/>
       <c r="R56" s="32"/>
       <c r="T56" s="33">
         <f t="shared" si="6"/>
@@ -12957,8 +12959,8 @@
         <v>6.6</v>
       </c>
       <c r="O57" s="30"/>
-      <c r="P57" s="38"/>
-      <c r="Q57" s="38"/>
+      <c r="P57" s="37"/>
+      <c r="Q57" s="37"/>
       <c r="R57" s="32"/>
       <c r="T57" s="33">
         <f t="shared" si="6"/>
@@ -13034,10 +13036,10 @@
         <f>11*N58-M58-L58-G58</f>
         <v>896.40000000000009</v>
       </c>
-      <c r="P58" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="38"/>
+      <c r="P58" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="37"/>
       <c r="R58" s="32">
         <v>0</v>
       </c>
@@ -13112,8 +13114,8 @@
         <v>8.4</v>
       </c>
       <c r="O59" s="30"/>
-      <c r="P59" s="38"/>
-      <c r="Q59" s="38"/>
+      <c r="P59" s="37"/>
+      <c r="Q59" s="37"/>
       <c r="R59" s="32"/>
       <c r="T59" s="33">
         <f t="shared" si="6"/>
@@ -13194,10 +13196,10 @@
         <f t="shared" ref="O60:O68" si="14">12*N60-M60-L60-G60</f>
         <v>391.46900000000005</v>
       </c>
-      <c r="P60" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q60" s="38"/>
+      <c r="P60" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="37"/>
       <c r="R60" s="32">
         <v>0</v>
       </c>
@@ -13279,10 +13281,10 @@
         <f>7*N61-M61-L61-G61</f>
         <v>271.8</v>
       </c>
-      <c r="P61" s="38">
+      <c r="P61" s="37">
         <v>220</v>
       </c>
-      <c r="Q61" s="38"/>
+      <c r="Q61" s="37"/>
       <c r="R61" s="32"/>
       <c r="T61" s="33">
         <f t="shared" si="6"/>
@@ -13356,8 +13358,8 @@
         <v>12.6744</v>
       </c>
       <c r="O62" s="30"/>
-      <c r="P62" s="38"/>
-      <c r="Q62" s="38"/>
+      <c r="P62" s="37"/>
+      <c r="Q62" s="37"/>
       <c r="R62" s="32"/>
       <c r="T62" s="33">
         <f t="shared" si="6"/>
@@ -13437,10 +13439,10 @@
         <f>10*N63-M63-L63-G63</f>
         <v>418</v>
       </c>
-      <c r="P63" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q63" s="38"/>
+      <c r="P63" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="37"/>
       <c r="R63" s="32">
         <v>0</v>
       </c>
@@ -13521,10 +13523,10 @@
         <f t="shared" si="14"/>
         <v>622.40000000000009</v>
       </c>
-      <c r="P64" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q64" s="38"/>
+      <c r="P64" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="37"/>
       <c r="R64" s="32">
         <v>0</v>
       </c>
@@ -13605,10 +13607,10 @@
         <f>11*N65-M65-L65-G65</f>
         <v>196.20000000000005</v>
       </c>
-      <c r="P65" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q65" s="38"/>
+      <c r="P65" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="37"/>
       <c r="R65" s="32">
         <v>0</v>
       </c>
@@ -13693,10 +13695,10 @@
         <f t="shared" si="14"/>
         <v>373.36540000000002</v>
       </c>
-      <c r="P66" s="38">
+      <c r="P66" s="37">
         <v>300</v>
       </c>
-      <c r="Q66" s="38"/>
+      <c r="Q66" s="37"/>
       <c r="R66" s="32"/>
       <c r="T66" s="33">
         <f t="shared" si="6"/>
@@ -13776,10 +13778,10 @@
         <f t="shared" si="14"/>
         <v>447.00840000000017</v>
       </c>
-      <c r="P67" s="38">
+      <c r="P67" s="37">
         <v>350</v>
       </c>
-      <c r="Q67" s="38"/>
+      <c r="Q67" s="37"/>
       <c r="R67" s="32"/>
       <c r="T67" s="33">
         <f t="shared" si="6"/>
@@ -13859,10 +13861,10 @@
         <f t="shared" si="14"/>
         <v>291.26920000000001</v>
       </c>
-      <c r="P68" s="38">
+      <c r="P68" s="37">
         <v>230</v>
       </c>
-      <c r="Q68" s="38"/>
+      <c r="Q68" s="37"/>
       <c r="R68" s="32"/>
       <c r="T68" s="33">
         <f t="shared" si="6"/>
@@ -13926,8 +13928,8 @@
         <v>0</v>
       </c>
       <c r="O69" s="30"/>
-      <c r="P69" s="38"/>
-      <c r="Q69" s="38"/>
+      <c r="P69" s="37"/>
+      <c r="Q69" s="37"/>
       <c r="R69" s="32"/>
       <c r="T69" s="33" t="e">
         <f t="shared" si="6"/>
@@ -14001,8 +14003,8 @@
         <v>0.4</v>
       </c>
       <c r="O70" s="30"/>
-      <c r="P70" s="38"/>
-      <c r="Q70" s="38"/>
+      <c r="P70" s="37"/>
+      <c r="Q70" s="37"/>
       <c r="R70" s="32"/>
       <c r="T70" s="33">
         <f t="shared" si="6"/>
@@ -14082,10 +14084,10 @@
         <f t="shared" ref="O71" si="17">12*N71-M71-L71-G71</f>
         <v>401.80000000000007</v>
       </c>
-      <c r="P71" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q71" s="38"/>
+      <c r="P71" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="37"/>
       <c r="R71" s="32">
         <v>0</v>
       </c>
@@ -14113,7 +14115,7 @@
         <v>77</v>
       </c>
       <c r="Z71" s="7">
-        <f t="shared" ref="Z71:AA110" si="20">P71*H71</f>
+        <f t="shared" ref="Z71:Z110" si="20">P71*H71</f>
         <v>0</v>
       </c>
       <c r="AA71" s="7">
@@ -14167,10 +14169,10 @@
         <f>11*N72-M72-L72-G72</f>
         <v>260.79999999999995</v>
       </c>
-      <c r="P72" s="38">
+      <c r="P72" s="37">
         <v>210</v>
       </c>
-      <c r="Q72" s="38"/>
+      <c r="Q72" s="37"/>
       <c r="R72" s="32"/>
       <c r="T72" s="33">
         <f t="shared" si="18"/>
@@ -14237,8 +14239,8 @@
         <v>0.25640000000000002</v>
       </c>
       <c r="O73" s="30"/>
-      <c r="P73" s="38"/>
-      <c r="Q73" s="38"/>
+      <c r="P73" s="37"/>
+      <c r="Q73" s="37"/>
       <c r="R73" s="32"/>
       <c r="T73" s="33">
         <f t="shared" si="18"/>
@@ -14308,10 +14310,10 @@
         <f>12*N74-M74-L74-G74</f>
         <v>82.305000000000007</v>
       </c>
-      <c r="P74" s="38">
+      <c r="P74" s="37">
         <v>50</v>
       </c>
-      <c r="Q74" s="38"/>
+      <c r="Q74" s="37"/>
       <c r="R74" s="32"/>
       <c r="T74" s="33">
         <f t="shared" si="18"/>
@@ -14379,8 +14381,8 @@
         <v>6</v>
       </c>
       <c r="O75" s="30"/>
-      <c r="P75" s="38"/>
-      <c r="Q75" s="38"/>
+      <c r="P75" s="37"/>
+      <c r="Q75" s="37"/>
       <c r="R75" s="32"/>
       <c r="T75" s="33">
         <f t="shared" si="18"/>
@@ -14450,8 +14452,8 @@
         <v>0.6</v>
       </c>
       <c r="O76" s="30"/>
-      <c r="P76" s="38"/>
-      <c r="Q76" s="38"/>
+      <c r="P76" s="37"/>
+      <c r="Q76" s="37"/>
       <c r="R76" s="32"/>
       <c r="T76" s="33">
         <f t="shared" si="18"/>
@@ -14522,10 +14524,10 @@
         <f>7*N77-M77-L77-G77</f>
         <v>42</v>
       </c>
-      <c r="P77" s="38">
+      <c r="P77" s="37">
         <v>35</v>
       </c>
-      <c r="Q77" s="38"/>
+      <c r="Q77" s="37"/>
       <c r="R77" s="32"/>
       <c r="T77" s="33">
         <f t="shared" si="18"/>
@@ -14595,8 +14597,8 @@
         <v>5.8</v>
       </c>
       <c r="O78" s="30"/>
-      <c r="P78" s="38"/>
-      <c r="Q78" s="38"/>
+      <c r="P78" s="37"/>
+      <c r="Q78" s="37"/>
       <c r="R78" s="32"/>
       <c r="T78" s="33">
         <f t="shared" si="18"/>
@@ -14670,8 +14672,8 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="O79" s="30"/>
-      <c r="P79" s="38"/>
-      <c r="Q79" s="38"/>
+      <c r="P79" s="37"/>
+      <c r="Q79" s="37"/>
       <c r="R79" s="32"/>
       <c r="T79" s="33">
         <f t="shared" si="18"/>
@@ -14739,8 +14741,8 @@
         <v>7.4</v>
       </c>
       <c r="O80" s="30"/>
-      <c r="P80" s="38"/>
-      <c r="Q80" s="38"/>
+      <c r="P80" s="37"/>
+      <c r="Q80" s="37"/>
       <c r="R80" s="32"/>
       <c r="T80" s="33">
         <f t="shared" si="18"/>
@@ -14810,8 +14812,8 @@
         <v>7.8</v>
       </c>
       <c r="O81" s="30"/>
-      <c r="P81" s="38"/>
-      <c r="Q81" s="38"/>
+      <c r="P81" s="37"/>
+      <c r="Q81" s="37"/>
       <c r="R81" s="32"/>
       <c r="T81" s="33">
         <f t="shared" si="18"/>
@@ -14884,8 +14886,8 @@
         <v>23.8</v>
       </c>
       <c r="O82" s="30"/>
-      <c r="P82" s="38"/>
-      <c r="Q82" s="38"/>
+      <c r="P82" s="37"/>
+      <c r="Q82" s="37"/>
       <c r="R82" s="32"/>
       <c r="T82" s="33">
         <f t="shared" si="18"/>
@@ -14959,8 +14961,8 @@
         <v>11.474</v>
       </c>
       <c r="O83" s="30"/>
-      <c r="P83" s="38"/>
-      <c r="Q83" s="38"/>
+      <c r="P83" s="37"/>
+      <c r="Q83" s="37"/>
       <c r="R83" s="32"/>
       <c r="T83" s="33">
         <f t="shared" si="18"/>
@@ -15037,10 +15039,10 @@
         <f t="shared" ref="O84:O88" si="22">12*N84-M84-L84-G84</f>
         <v>98.800000000000068</v>
       </c>
-      <c r="P84" s="38">
+      <c r="P84" s="37">
         <v>50</v>
       </c>
-      <c r="Q84" s="38"/>
+      <c r="Q84" s="37"/>
       <c r="R84" s="32"/>
       <c r="T84" s="33">
         <f t="shared" si="18"/>
@@ -15113,10 +15115,10 @@
         <f>9*N85-M85-L85-G85</f>
         <v>184.14839999999998</v>
       </c>
-      <c r="P85" s="38">
+      <c r="P85" s="37">
         <v>100</v>
       </c>
-      <c r="Q85" s="38"/>
+      <c r="Q85" s="37"/>
       <c r="R85" s="32"/>
       <c r="T85" s="33">
         <f t="shared" si="18"/>
@@ -15193,10 +15195,10 @@
         <f t="shared" si="22"/>
         <v>72.799999999999983</v>
       </c>
-      <c r="P86" s="38">
+      <c r="P86" s="37">
         <v>30</v>
       </c>
-      <c r="Q86" s="38"/>
+      <c r="Q86" s="37"/>
       <c r="R86" s="32"/>
       <c r="T86" s="33">
         <f t="shared" si="18"/>
@@ -15273,10 +15275,10 @@
         <f t="shared" si="22"/>
         <v>254.60000000000002</v>
       </c>
-      <c r="P87" s="38">
+      <c r="P87" s="37">
         <v>210</v>
       </c>
-      <c r="Q87" s="38"/>
+      <c r="Q87" s="37"/>
       <c r="R87" s="32"/>
       <c r="T87" s="33">
         <f t="shared" si="18"/>
@@ -15356,10 +15358,10 @@
         <f t="shared" si="22"/>
         <v>533.90500000000009</v>
       </c>
-      <c r="P88" s="38">
+      <c r="P88" s="37">
         <v>450</v>
       </c>
-      <c r="Q88" s="38"/>
+      <c r="Q88" s="37"/>
       <c r="R88" s="32"/>
       <c r="T88" s="33">
         <f t="shared" si="18"/>
@@ -15435,10 +15437,10 @@
         <f>7*N89-M89-L89-G89</f>
         <v>90.902600000000007</v>
       </c>
-      <c r="P89" s="38">
+      <c r="P89" s="37">
         <v>75</v>
       </c>
-      <c r="Q89" s="38"/>
+      <c r="Q89" s="37"/>
       <c r="R89" s="32"/>
       <c r="T89" s="33">
         <f t="shared" si="18"/>
@@ -15514,10 +15516,10 @@
         <f>11*N90-M90-L90-G90</f>
         <v>335.6</v>
       </c>
-      <c r="P90" s="38">
+      <c r="P90" s="37">
         <v>100</v>
       </c>
-      <c r="Q90" s="38"/>
+      <c r="Q90" s="37"/>
       <c r="R90" s="32">
         <v>100</v>
       </c>
@@ -15602,10 +15604,10 @@
         <f>11*N91-M91-L91-G91</f>
         <v>237.39999999999998</v>
       </c>
-      <c r="P91" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="38"/>
+      <c r="P91" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="37"/>
       <c r="R91" s="32">
         <v>0</v>
       </c>
@@ -15680,8 +15682,8 @@
         <v>6.4</v>
       </c>
       <c r="O92" s="30"/>
-      <c r="P92" s="38"/>
-      <c r="Q92" s="38"/>
+      <c r="P92" s="37"/>
+      <c r="Q92" s="37"/>
       <c r="R92" s="32"/>
       <c r="T92" s="33">
         <f t="shared" si="18"/>
@@ -15749,8 +15751,8 @@
         <v>6</v>
       </c>
       <c r="O93" s="30"/>
-      <c r="P93" s="38"/>
-      <c r="Q93" s="38"/>
+      <c r="P93" s="37"/>
+      <c r="Q93" s="37"/>
       <c r="R93" s="32"/>
       <c r="T93" s="33">
         <f t="shared" si="18"/>
@@ -15823,10 +15825,10 @@
         <f>10*N94-M94-L94-G94</f>
         <v>218</v>
       </c>
-      <c r="P94" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="38"/>
+      <c r="P94" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="37"/>
       <c r="R94" s="32">
         <v>0</v>
       </c>
@@ -15904,10 +15906,10 @@
         <f>8*N95-M95-L95-G95</f>
         <v>288.74220000000003</v>
       </c>
-      <c r="P95" s="38">
+      <c r="P95" s="37">
         <v>230</v>
       </c>
-      <c r="Q95" s="38"/>
+      <c r="Q95" s="37"/>
       <c r="R95" s="32"/>
       <c r="T95" s="33">
         <f t="shared" si="18"/>
@@ -15984,10 +15986,10 @@
         <f>11*N96-M96-L96-G96</f>
         <v>181.45719999999997</v>
       </c>
-      <c r="P96" s="38">
+      <c r="P96" s="37">
         <v>150</v>
       </c>
-      <c r="Q96" s="38"/>
+      <c r="Q96" s="37"/>
       <c r="R96" s="32"/>
       <c r="T96" s="33">
         <f t="shared" si="18"/>
@@ -16061,8 +16063,8 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="O97" s="30"/>
-      <c r="P97" s="38"/>
-      <c r="Q97" s="38"/>
+      <c r="P97" s="37"/>
+      <c r="Q97" s="37"/>
       <c r="R97" s="32"/>
       <c r="T97" s="33">
         <f t="shared" si="18"/>
@@ -16135,10 +16137,10 @@
         <f>8*N98-M98-L98-G98</f>
         <v>25.2</v>
       </c>
-      <c r="P98" s="38">
+      <c r="P98" s="37">
         <v>20</v>
       </c>
-      <c r="Q98" s="38"/>
+      <c r="Q98" s="37"/>
       <c r="R98" s="32"/>
       <c r="T98" s="33">
         <f t="shared" si="18"/>
@@ -16219,10 +16221,10 @@
         <f t="shared" ref="O99:O106" si="23">12*N99-M99-L99-G99</f>
         <v>199.20000000000005</v>
       </c>
-      <c r="P99" s="38">
+      <c r="P99" s="37">
         <v>170</v>
       </c>
-      <c r="Q99" s="38"/>
+      <c r="Q99" s="37"/>
       <c r="R99" s="32"/>
       <c r="T99" s="33">
         <f t="shared" si="18"/>
@@ -16297,10 +16299,10 @@
         <f t="shared" si="23"/>
         <v>52.200000000000017</v>
       </c>
-      <c r="P100" s="38">
+      <c r="P100" s="37">
         <v>35</v>
       </c>
-      <c r="Q100" s="38"/>
+      <c r="Q100" s="37"/>
       <c r="R100" s="32"/>
       <c r="T100" s="33">
         <f t="shared" si="18"/>
@@ -16375,10 +16377,10 @@
         <f t="shared" si="23"/>
         <v>67.200000000000045</v>
       </c>
-      <c r="P101" s="38">
+      <c r="P101" s="37">
         <v>45</v>
       </c>
-      <c r="Q101" s="38"/>
+      <c r="Q101" s="37"/>
       <c r="R101" s="32"/>
       <c r="T101" s="33">
         <f t="shared" si="18"/>
@@ -16451,10 +16453,10 @@
         <f t="shared" si="23"/>
         <v>81</v>
       </c>
-      <c r="P102" s="38">
+      <c r="P102" s="37">
         <v>65</v>
       </c>
-      <c r="Q102" s="38"/>
+      <c r="Q102" s="37"/>
       <c r="R102" s="32"/>
       <c r="T102" s="33">
         <f t="shared" si="18"/>
@@ -16531,10 +16533,10 @@
         <f t="shared" si="23"/>
         <v>92.19999999999996</v>
       </c>
-      <c r="P103" s="38">
+      <c r="P103" s="37">
         <v>70</v>
       </c>
-      <c r="Q103" s="38"/>
+      <c r="Q103" s="37"/>
       <c r="R103" s="32"/>
       <c r="T103" s="33">
         <f t="shared" si="18"/>
@@ -16611,10 +16613,10 @@
         <f>9*N104-M104-L104-G104</f>
         <v>75.200000000000017</v>
       </c>
-      <c r="P104" s="38">
+      <c r="P104" s="37">
         <v>45</v>
       </c>
-      <c r="Q104" s="38"/>
+      <c r="Q104" s="37"/>
       <c r="R104" s="32"/>
       <c r="T104" s="33">
         <f t="shared" si="18"/>
@@ -16691,10 +16693,10 @@
         <f>11*N105-M105-L105-G105</f>
         <v>164.40000000000003</v>
       </c>
-      <c r="P105" s="38">
+      <c r="P105" s="37">
         <v>130</v>
       </c>
-      <c r="Q105" s="38"/>
+      <c r="Q105" s="37"/>
       <c r="R105" s="32"/>
       <c r="T105" s="33">
         <f t="shared" si="18"/>
@@ -16771,10 +16773,10 @@
         <f t="shared" si="23"/>
         <v>30.96759999999999</v>
       </c>
-      <c r="P106" s="38">
+      <c r="P106" s="37">
         <v>15</v>
       </c>
-      <c r="Q106" s="38"/>
+      <c r="Q106" s="37"/>
       <c r="R106" s="32"/>
       <c r="T106" s="33">
         <f t="shared" si="18"/>
@@ -16838,8 +16840,8 @@
         <v>0</v>
       </c>
       <c r="O107" s="30"/>
-      <c r="P107" s="38"/>
-      <c r="Q107" s="38"/>
+      <c r="P107" s="37"/>
+      <c r="Q107" s="37"/>
       <c r="R107" s="32"/>
       <c r="T107" s="33" t="e">
         <f t="shared" si="18"/>
@@ -16912,10 +16914,10 @@
         <f>11*N108-M108-L108-G108</f>
         <v>27.599999999999994</v>
       </c>
-      <c r="P108" s="38">
+      <c r="P108" s="37">
         <v>20</v>
       </c>
-      <c r="Q108" s="38"/>
+      <c r="Q108" s="37"/>
       <c r="R108" s="32"/>
       <c r="T108" s="33">
         <f t="shared" si="18"/>
@@ -16986,10 +16988,10 @@
         <f>7*N109-M109-L109-G109</f>
         <v>42</v>
       </c>
-      <c r="P109" s="38">
+      <c r="P109" s="37">
         <v>30</v>
       </c>
-      <c r="Q109" s="38"/>
+      <c r="Q109" s="37"/>
       <c r="R109" s="32"/>
       <c r="T109" s="33">
         <f t="shared" si="18"/>
@@ -17057,8 +17059,8 @@
         <v>0</v>
       </c>
       <c r="O110" s="30"/>
-      <c r="P110" s="38"/>
-      <c r="Q110" s="38"/>
+      <c r="P110" s="37"/>
+      <c r="Q110" s="37"/>
       <c r="R110" s="32"/>
       <c r="T110" s="33" t="e">
         <f t="shared" si="18"/>
